--- a/ToDo list (WIP).xlsx
+++ b/ToDo list (WIP).xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\CODING\3DS\3DSCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CF58A-44AB-40FF-ADCE-D5E80188A47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E4FFC-EC3F-49B2-B5C4-8B1511ABC3BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE4C67F3-ACF1-4D84-BF1E-36663A123DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,33 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
-    <t>In Development</t>
-  </si>
-  <si>
-    <t>Tested</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>TitleScreen</t>
   </si>
   <si>
     <t>SceneManager</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Text in menustate.TitleState_Support doesnt Render</t>
-  </si>
-  <si>
-    <t>Bugs (Marked with [//TODO:] )</t>
-  </si>
-  <si>
     <t>Panorama and Buttons</t>
   </si>
   <si>
@@ -77,9 +45,6 @@
     <t>Options like RenderDistance, Button layouts, other settings like Autojumping</t>
   </si>
   <si>
-    <t>TileEntitys</t>
-  </si>
-  <si>
     <t>Block Models</t>
   </si>
   <si>
@@ -89,9 +54,6 @@
     <t>Colorful lighting, ambient occlusion</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=piknGokM6rY</t>
-  </si>
-  <si>
     <t>Better Camera</t>
   </si>
   <si>
@@ -158,9 +120,6 @@
     <t>Adding Language translations for buttons, items and so on.</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YyVAaJqYAfE&amp;t=985s</t>
-  </si>
-  <si>
     <t>Analyzing important Game Versions to get how certain features work.</t>
   </si>
   <si>
@@ -173,18 +132,12 @@
     <t>Particle system</t>
   </si>
   <si>
-    <t>Having Particles like Torch particles, Lava particles, splash particles when entering water a.s.o</t>
-  </si>
-  <si>
     <t>C++ Port</t>
   </si>
   <si>
     <t>Porting the Source code to c++ for classes</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Multiplayer over DownloadPlay</t>
   </si>
   <si>
@@ -194,12 +147,6 @@
     <t>Multiple Biomes, like Desert, Plains, Birch forest, mushroom islands, oceans and more</t>
   </si>
   <si>
-    <t>TODO: (importance from top to bottom), Color=Active</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fz3Td2zlgro</t>
-  </si>
-  <si>
     <t>Water, Lava (Milk doesnt count as a Fluid. Its an Item)</t>
   </si>
   <si>
@@ -243,13 +190,160 @@
   </si>
   <si>
     <t>Editing the Skin texture or Downloading a skin form URL/QR. Edit player name</t>
+  </si>
+  <si>
+    <t>Todo-List 3DSCraft</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TASK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>important first, color is state of progress</t>
+    </r>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>leave blank if no person specifically.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DESCRIPTION: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>color is difficulty</t>
+    </r>
+  </si>
+  <si>
+    <t>Font character spacing too large</t>
+  </si>
+  <si>
+    <t>Having Particles like Torch particles, Lava particles, splash particles when entering water etc</t>
+  </si>
+  <si>
+    <t>TileEntities</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=piknGokM6rY https://www.youtube.com/watch?v=YyVAaJqYAfE&amp;t=985s https://www.youtube.com/watch?v=fz3Td2zlgro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Colors: grey=unknown, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red=huge effort</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green=easy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Colors: grey=nothing, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red=small/just begun</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green=nearly-/done</t>
+    </r>
+  </si>
+  <si>
+    <t>FEATURES:</t>
+  </si>
+  <si>
+    <t>BUGS:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +359,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,34 +417,51 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -311,28 +470,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -352,7 +626,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D6D6D6"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -661,300 +935,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1438F1C6-6221-44C0-93B2-7EA6BAAF77FB}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="113.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="48" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1"/>
+    <col min="6" max="6" width="48" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="24.75">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="28.5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{DA2AE3CF-4172-4F7B-A39A-43731B14F1D4}"/>
+    <hyperlink ref="D1" r:id="rId1" display="https://www.youtube.com/watch?v=piknGokM6rY" xr:uid="{A90B2596-ACEB-4E44-98B0-20452955EE52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>